--- a/Ignorar_Backup/Impactos_Riesgo.xlsx
+++ b/Ignorar_Backup/Impactos_Riesgo.xlsx
@@ -485,19 +485,19 @@
         <v>0.11</v>
       </c>
       <c r="C2" t="n">
-        <v>2.381114964203453</v>
+        <v>2.386126144326489</v>
       </c>
       <c r="D2" t="n">
-        <v>2.380935453652306</v>
+        <v>2.336908879095915</v>
       </c>
       <c r="E2" t="n">
-        <v>-0</v>
+        <v>-0.01</v>
       </c>
       <c r="F2" t="n">
-        <v>1.884955906925862</v>
+        <v>1.897032209557543</v>
       </c>
       <c r="G2" t="n">
-        <v>1.646421704744234</v>
+        <v>1.611018388778711</v>
       </c>
       <c r="H2" t="n">
         <v>-0.03</v>
@@ -513,19 +513,19 @@
         <v>0.08</v>
       </c>
       <c r="C3" t="n">
-        <v>2.381114964203453</v>
+        <v>2.386126144326489</v>
       </c>
       <c r="D3" t="n">
-        <v>2.832588893653404</v>
+        <v>2.837541651129205</v>
       </c>
       <c r="E3" t="n">
         <v>0.04</v>
       </c>
       <c r="F3" t="n">
-        <v>1.884955906925862</v>
+        <v>1.897032209557543</v>
       </c>
       <c r="G3" t="n">
-        <v>2.234236734004946</v>
+        <v>2.246127313114503</v>
       </c>
       <c r="H3" t="n">
         <v>0.03</v>
@@ -541,19 +541,19 @@
         <v>0.12</v>
       </c>
       <c r="C4" t="n">
-        <v>2.381114964203453</v>
+        <v>2.386126144326489</v>
       </c>
       <c r="D4" t="n">
-        <v>2.55950642324379</v>
+        <v>2.537914172266159</v>
       </c>
       <c r="E4" t="n">
         <v>0.02</v>
       </c>
       <c r="F4" t="n">
-        <v>1.884955906925862</v>
+        <v>1.897032209557543</v>
       </c>
       <c r="G4" t="n">
-        <v>2.145636523075887</v>
+        <v>2.106108911904124</v>
       </c>
       <c r="H4" t="n">
         <v>0.03</v>
@@ -569,19 +569,19 @@
         <v>0.1</v>
       </c>
       <c r="C5" t="n">
-        <v>2.381114964203453</v>
+        <v>2.386126144326489</v>
       </c>
       <c r="D5" t="n">
-        <v>2.366482529076591</v>
+        <v>2.321165907503429</v>
       </c>
       <c r="E5" t="n">
-        <v>-0</v>
+        <v>-0.01</v>
       </c>
       <c r="F5" t="n">
-        <v>1.884955906925862</v>
+        <v>1.897032209557543</v>
       </c>
       <c r="G5" t="n">
-        <v>1.588635657827939</v>
+        <v>1.551305608607018</v>
       </c>
       <c r="H5" t="n">
         <v>-0.03</v>
@@ -597,19 +597,19 @@
         <v>0.06</v>
       </c>
       <c r="C6" t="n">
-        <v>2.381114964203453</v>
+        <v>2.386126144326489</v>
       </c>
       <c r="D6" t="n">
-        <v>2.960798429494531</v>
+        <v>2.965751186970332</v>
       </c>
       <c r="E6" t="n">
         <v>0.03</v>
       </c>
       <c r="F6" t="n">
-        <v>1.884955906925862</v>
+        <v>1.897032209557543</v>
       </c>
       <c r="G6" t="n">
-        <v>2.331989221440273</v>
+        <v>2.34387980054983</v>
       </c>
       <c r="H6" t="n">
         <v>0.03</v>
@@ -625,19 +625,19 @@
         <v>0.1</v>
       </c>
       <c r="C7" t="n">
-        <v>2.381114964203453</v>
+        <v>2.386126144326489</v>
       </c>
       <c r="D7" t="n">
-        <v>2.471160869959392</v>
+        <v>2.47614422723779</v>
       </c>
       <c r="E7" t="n">
         <v>0.01</v>
       </c>
       <c r="F7" t="n">
-        <v>1.884955906925862</v>
+        <v>1.897032209557543</v>
       </c>
       <c r="G7" t="n">
-        <v>2.157368631162464</v>
+        <v>2.169286892298774</v>
       </c>
       <c r="H7" t="n">
         <v>0.03</v>
@@ -653,19 +653,19 @@
         <v>0.09</v>
       </c>
       <c r="C8" t="n">
-        <v>2.381114964203453</v>
+        <v>2.386126144326489</v>
       </c>
       <c r="D8" t="n">
-        <v>2.544482615977928</v>
+        <v>2.544046209477013</v>
       </c>
       <c r="E8" t="n">
         <v>0.01</v>
       </c>
       <c r="F8" t="n">
-        <v>1.884955906925862</v>
+        <v>1.897032209557543</v>
       </c>
       <c r="G8" t="n">
-        <v>2.188682701818007</v>
+        <v>2.181029560039936</v>
       </c>
       <c r="H8" t="n">
         <v>0.03</v>
@@ -681,19 +681,19 @@
         <v>0.1</v>
       </c>
       <c r="C9" t="n">
-        <v>2.381114964203453</v>
+        <v>2.386126144326489</v>
       </c>
       <c r="D9" t="n">
-        <v>2.494918331967329</v>
+        <v>2.499901689245726</v>
       </c>
       <c r="E9" t="n">
         <v>0.01</v>
       </c>
       <c r="F9" t="n">
-        <v>1.884955906925862</v>
+        <v>1.897032209557543</v>
       </c>
       <c r="G9" t="n">
-        <v>2.146252652459321</v>
+        <v>2.158170913595631</v>
       </c>
       <c r="H9" t="n">
         <v>0.03</v>
@@ -709,19 +709,19 @@
         <v>0.12</v>
       </c>
       <c r="C10" t="n">
-        <v>2.381114964203453</v>
+        <v>2.386126144326489</v>
       </c>
       <c r="D10" t="n">
-        <v>2.551033864590713</v>
+        <v>2.556045044713749</v>
       </c>
       <c r="E10" t="n">
         <v>0.02</v>
       </c>
       <c r="F10" t="n">
-        <v>1.884955906925862</v>
+        <v>1.897032209557543</v>
       </c>
       <c r="G10" t="n">
-        <v>2.129017644186296</v>
+        <v>2.141093946817976</v>
       </c>
       <c r="H10" t="n">
         <v>0.03</v>
@@ -737,19 +737,19 @@
         <v>0.1</v>
       </c>
       <c r="C11" t="n">
-        <v>2.381114964203453</v>
+        <v>2.386126144326489</v>
       </c>
       <c r="D11" t="n">
-        <v>2.264330051590105</v>
+        <v>2.269313408868503</v>
       </c>
       <c r="E11" t="n">
         <v>-0.01</v>
       </c>
       <c r="F11" t="n">
-        <v>1.884955906925862</v>
+        <v>1.897032209557543</v>
       </c>
       <c r="G11" t="n">
-        <v>1.583653604362747</v>
+        <v>1.595571865499057</v>
       </c>
       <c r="H11" t="n">
         <v>-0.03</v>
@@ -765,22 +765,22 @@
         <v>0.12</v>
       </c>
       <c r="C12" t="n">
-        <v>2.381114964203453</v>
+        <v>2.386126144326489</v>
       </c>
       <c r="D12" t="n">
-        <v>2.233308851483006</v>
+        <v>2.212023365810411</v>
       </c>
       <c r="E12" t="n">
         <v>-0.02</v>
       </c>
       <c r="F12" t="n">
-        <v>1.884955906925862</v>
+        <v>1.897032209557543</v>
       </c>
       <c r="G12" t="n">
-        <v>1.621738661687345</v>
+        <v>1.583334406276234</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.03</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="13">
@@ -793,19 +793,19 @@
         <v>0.15</v>
       </c>
       <c r="C13" t="n">
-        <v>2.381114964203453</v>
+        <v>2.386126144326489</v>
       </c>
       <c r="D13" t="n">
-        <v>2.31683513249533</v>
+        <v>2.321818489773727</v>
       </c>
       <c r="E13" t="n">
         <v>-0.01</v>
       </c>
       <c r="F13" t="n">
-        <v>1.884955906925862</v>
+        <v>1.897032209557543</v>
       </c>
       <c r="G13" t="n">
-        <v>1.686752609251719</v>
+        <v>1.698670870388028</v>
       </c>
       <c r="H13" t="n">
         <v>-0.03</v>
@@ -821,19 +821,19 @@
         <v>0.12</v>
       </c>
       <c r="C14" t="n">
-        <v>2.381114964203453</v>
+        <v>2.386126144326489</v>
       </c>
       <c r="D14" t="n">
-        <v>2.245365487783775</v>
+        <v>2.250376667906811</v>
       </c>
       <c r="E14" t="n">
         <v>-0.02</v>
       </c>
       <c r="F14" t="n">
-        <v>1.884955906925862</v>
+        <v>1.897032209557543</v>
       </c>
       <c r="G14" t="n">
-        <v>1.64720585633578</v>
+        <v>1.659282158967461</v>
       </c>
       <c r="H14" t="n">
         <v>-0.03</v>
